--- a/assets/db/products_mdgt_sinprecio.xlsx
+++ b/assets/db/products_mdgt_sinprecio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismartinez/Sites/mdgt_finalsite/assets/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E00084-D9C1-164E-9722-07442DB9EBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA76769-0988-4A40-A603-B6EB0526D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="500" windowWidth="36760" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="313">
   <si>
     <t>Vinyl Banners</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Roll Labels</t>
   </si>
   <si>
-    <t>Businnes Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flyres &amp; Brochures </t>
-  </si>
-  <si>
     <t>Header Cards</t>
   </si>
   <si>
@@ -112,12 +106,6 @@
     <t>Screen Printing</t>
   </si>
   <si>
-    <t>Direct to Film (DTF) Printing</t>
-  </si>
-  <si>
-    <t>Direct to Garment (DTG) Printing</t>
-  </si>
-  <si>
     <t>Heat Transfer Vinyl</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>Video Production</t>
   </si>
   <si>
-    <t>Social Media Management</t>
-  </si>
-  <si>
     <t>page_title</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
   </si>
   <si>
     <t>assets/images/products/vinylbanner-1.webp</t>
-  </si>
-  <si>
-    <t>Vinyl Banners </t>
   </si>
   <si>
     <t>Vinyl Banners are the bedrock of large format printing, offering an unmatched fusion of visibility and durability. Crafted from 15 mil thick opaque vinyl, these banners stand resilient against sunlight and backlight, ensuring your message remains vibrant and legible regardless of lighting conditions. From gracing stadium facades to enclosing construction site fences, their versatility knows no bounds. Equally captivating indoors at bustling trade shows, these banners boast a robustness that defies outdoor elements, guaranteeing a product lifespan that leaves a lasting impression.
@@ -204,9 +186,6 @@
     <t>assets/images/products/coroplast-1.webp</t>
   </si>
   <si>
-    <t>Coroplast Signs </t>
-  </si>
-  <si>
     <t>Coroplast Signs redefine the scope of durable outdoor signage, boasting an impressive thickness of 10mm—more than double the industry standard of 4mm coroplast. This advanced level of sturdiness equips them to withstand the unpredictable nature of outdoor environments, ensuring your message stands strong against the elements. Utilizing UV-cured inks, these signs not only enhance resilience but also maintain vibrant color retention over time. The cutting-edge printing technology supports both single and double-sided imagery, offering versatility for a broad range of applications.
 With their immunity to common solvents, oils, and water at regular temperatures, Coroplast Signs maintain both structural integrity and visual clarity through diverse weather conditions. This makes them an impeccable choice for real estate marketing, political campaigns, and site identifications that require a lasting presence. Their exceptional ability to resist fading and warping under the harsh sun or inclement weather positions them as a reliable advertising medium. Whether promoting an event or guiding your visitors, these signs are designed to deliver your message effectively.
 Moreover, Coroplast Signs are not only rugged but also lightweight and easy to maneuver, simplifying the logistics of transportation and installation. They transcend traditional signage by transforming into interactive displays, informative kiosks, or celebratory markers for social events. This blend of durability, ease of use, and outstanding print quality ensures that Coroplast Signs are not merely products but vital allies in your promotional strategy, making a lasting impression wherever they stand.</t>
@@ -230,9 +209,6 @@
     <t>assets/images/products/retactiblebanner-1.webp</t>
   </si>
   <si>
-    <t>Retractable Banner </t>
-  </si>
-  <si>
     <t>etractable Banners stand at the forefront of convenience and professionalism in promotional displays. Designed for swift assembly, these banners epitomize user-friendly advertising tools. The banner itself unfolds a tapestry of vibrant colors printed on premium 10mil indoor vinyl, capturing the eye and enticing the viewer with unmatched print quality. Nestled within a robust aluminum base, the banner emerges with a gentle pull, transforming a compact case into a towering display of marketing prowess.
 Perfectly suited for trade shows, conferences, and pop-up marketing events, Retractable Banners come with a carrying case, making them the ideal companion for professionals on the go. The ease of transportation and setup makes these banners invaluable, bridging the gap between mobility and visual appeal without compromising display integrity. Their sturdy construction ensures stability and resilience, allowing you to present with confidence, knowing your display will withstand the hustle of busy event floors while maintaining a sleek and professional look.</t>
   </si>
@@ -255,9 +231,6 @@
     <t>assets/images/products/sidewalk-1.webp</t>
   </si>
   <si>
-    <t>Sidewalk Signs </t>
-  </si>
-  <si>
     <t>Sidewalk Signs are designed to captivate and communicate effectively amidst the bustling dance of urban life. Positioned strategically, these signs act as silent barkers of modern commerce, engaging with a transient audience to convert foot traffic into potential customers. Constructed from rugged materials, they withstand the elements, from scorching summer heat to the biting chill of winter, ensuring reliability as a permanent fixture on any pavement.
 Whether used as wayfinding tools or beacons of promotions, Sidewalk Signs offer quick content updates and easy relocation to effectively target audience hotspots. Their practicality is matched by portability, featuring a design that allows for swift repositioning without cumbersome tools or excessive manpower. With dimensions crafted to stand out yet not obstruct pedestrian traffic, they provide an optimal balance of visibility and courtesy, catering to a range of needs from quaint cafés to retail giants.</t>
   </si>
@@ -277,9 +250,6 @@
     <t>assets/images/products/walldecal-1.webp</t>
   </si>
   <si>
-    <t>Vinyl Wall Decals </t>
-  </si>
-  <si>
     <t>Vinyl Wall Decals are a transformative solution for personalizing any space, crafted with a low-tack adhesive backing on premium 8mil vinyl. These decals smoothly adhere to a variety of surfaces including walls, desks, and glass, without risking damage or residue upon removal. Ideal for renters, office spaces, or temporary signage, the ease of application and removal makes these decals a versatile choice for dynamic interior design.
 With the ability to produce custom cut-out shapes, Vinyl Wall Decals open an endless array of creative possibilities. Whether setting the ambiance of a café or invigorating a corporate office with motivational quotes, the precision cut and vibrant colors of these decals ensure your space stands out. They present an affordable alternative to traditional décor, allowing for frequent updates to your environment with minimal effort and maximum impact.</t>
   </si>
@@ -297,9 +267,6 @@
   </si>
   <si>
     <t>assets/images/products/hightrackvinyl-1.webp</t>
-  </si>
-  <si>
-    <t>High Track Adhesive Vinyl </t>
   </si>
   <si>
     <t>High Tack Adhesive Vinyl stands as the pinnacle of durability and adhesion across a multitude of applications. Printed on robust white 4mil vinyl and fortified with a steadfast permanent adhesive backing, this vinyl is meticulously engineered to withstand the relentless demands of indoor environments and the capricious elements of the outdoors. It reigns supreme as the preferred choice for long-term signage, from storefront displays to industrial equipment, where steadfast adhesion is non-negotiable.
@@ -325,9 +292,6 @@
     <t>assets/images/products/carmagnet-1.webp</t>
   </si>
   <si>
-    <t>Car Door Magnets </t>
-  </si>
-  <si>
     <t>Car Door hangers are the ultimate in direct marketing, ensuring your message can't be ignored. Printed on durable paper stock and designed to hang prominently on any door handle, they're an excellent way to reach new customer segments and ensure your promotional material lands directly in the hands of potential clients. With ample space for engaging text and visuals, they maximize marketing impact and demand immediate attention.
 The strategic placement of door hangers puts your message front and center, literally at the doorstep of your audience. Whether promoting local services, restaurant deals, or upcoming events, they're hard to overlook. They serve as physical prompts that demand attention and action, making an immediate impact from the moment your customer arrives home or steps out the door.
 Available in various sizes and coatings, including gloss cover, gloss book, and C2S stocks, our door hangers offer a tailored approach to suit any marketing need, delivering an experience right to your audience's fingertips.</t>
@@ -351,9 +315,6 @@
     <t>assets/images/products/perforated-1.webp</t>
   </si>
   <si>
-    <t>Perforated Window Vinyl </t>
-  </si>
-  <si>
     <t>Experience the perfect blend of privacy and visibility with our Perforated Window Vinyl. Printed on 6mil white flexible vinyl with a perforated pattern, it allows full-color graphics visible from outside while maintaining interior visibility. An excellent choice for retail windows, vehicle advertisements, and office partitions.
 Boasting approximately 30% open area, the perforations create a one-way vision effect, maximizing display space without sacrificing natural light. Opt for the optional 2mil optically clear laminate for added protection against UV radiation, moisture, and daily wear and tear.
 Enhancing security and solar control, this product offers both privacy and comfort. Whether for promotions or architectural enhancements, Perforated Window Vinyl delivers aesthetic appeal and practical benefits, making it a smart choice for businesses and vehicle owners alike.</t>
@@ -374,9 +335,6 @@
     <t>assets/images/products/windowgrapich-1.webp</t>
   </si>
   <si>
-    <t>Window Graphics </t>
-  </si>
-  <si>
     <t>Transform glass surfaces into vibrant marketing displays with our Window Graphics. Printed on 4mil flexible vinyl with a 6mil clear over laminate, these graphics offer durability and a polished finish. The removable acrylic adhesive ensures easy application and removal from most dry, clean surfaces.
 Ideal for interior applications, Window Graphics can breathe life into any space, providing branding solutions or decorative accents. Custom-sized to fit any window or door, they offer flexibility for branding, wayfinding, or promotional messaging.
 As a vital component of visual merchandising strategies, Window Graphics can be updated seasonally or for specific promotions, keeping visual communications fresh and engaging. For businesses prioritizing aesthetics and message clarity, these graphics offer functionality, versatility, and visual impact in equal measure.</t>
@@ -403,9 +361,6 @@
     <t>assets/images/products/businesscards-1.webp</t>
   </si>
   <si>
-    <t>Business Cards </t>
-  </si>
-  <si>
     <t>Elevate your networking game with our Business Cards - they're not just a formality but a strategic tool in establishing and broadening your professional connections. Crafted with precision, our business cards are designed to leave an indelible impression. From the tactile feel of the stock to the visual appeal of UV coating, we offer customization options that cater to the discerning tastes of modern professionals. Our high-quality uncoated stock ensures that every card not only feels substantial and easy to write on but also stands up to the wear and tear of daily handling.
 In today's digital age, the tactile exchange of business cards retains a sense of personal touch and professionalism that digital mediums can't match. It serves as a physical reminder of connections made, conversations had, and opportunities for future engagement. With our range of specs, sizes, and quantities, clients can tailor their cards for different markets and messages, ensuring relevance and impact across diverse industries.
 Moreover, our optional UV coating adds a layer of sophistication and durability, enhancing the vibrancy of colors and providing a sleek, polished finish. Whether networking at a bustling conference or closing a deal in a quiet café, our business cards are the perfect amalgamation of form and function, guaranteed to make a lasting impact and uphold the finest standards in the industry.</t>
@@ -429,9 +384,6 @@
     <t>assets/images/products/postcards-1.webp</t>
   </si>
   <si>
-    <t>Postcards </t>
-  </si>
-  <si>
     <t>Unlock the potential of your marketing campaigns with our Postcards - versatile canvases that combine visual appeal with tangible interaction. Printed on premium card stock, our postcards are not only a pleasure to behold but also built to last. Whether for direct mail campaigns, invitations, or promotional handouts, these cards are designed to stand out in a pile of mail and capture the recipient's attention.
 The durability of our postcards makes them a reliable choice for delivering your message far and wide. They endure the journey from mailbox to hand without losing their form or appeal, ensuring your communication reaches its audience as intended. Whether attracting new business, promoting special offers, or keeping in touch with existing clients, postcards are an effective and efficient way to connect and stay relevant.
 Customization is key, and our array of stock and finish options allows for creative expression that reflects your brand's personality. Each postcard tells a story in vivid color and striking imagery, creating a memorable interaction with your audience from the first sketch to the final print.</t>
@@ -449,9 +401,6 @@
     <t>assets/images/products/flyersandbrochures-1.webp</t>
   </si>
   <si>
-    <t>Flyers And Brochures </t>
-  </si>
-  <si>
     <t>Empower your marketing efforts with our Flyers and Brochures - timeless tools that effectively disseminate your message to a wide audience. Whether produced flat for quick distribution or folded for perusal, these printed materials serve as silent salespeople, capable of reaching places and people at a scale not possible through one-on-one interactions.
 Printed on superior uncoated stock, our flyers and brochures present information in a clear, accessible format. The option to choose from a large selection of folds, sizes, premium stocks, and quantities allows for a high degree of customization. Additional coatings like UV, aqueous, and satin not only protect your material but also give it a distinguished feel and appearance.
 Whether used as self-mailers, handed out at events, or included with direct mail letters, flyers and brochures are an effective way to get your messaging into customers' hands. Their tangibility and versatility make them indispensable tools in your marketing arsenal, providing a sensory experience that digital advertising cannot replicate.</t>
@@ -475,9 +424,6 @@
     <t>assets/images/products/announcementcards-1.webp</t>
   </si>
   <si>
-    <t>Announcement Cards </t>
-  </si>
-  <si>
     <t>Share your news with style and substance using our Announcement Cards - the bearers of good tidings and significant updates. Custom-printed to mark special occasions, announce store openings, or promote upcoming sales, these cards serve as personal touchpoints that capture the essence of your message, delivering it with clarity and class.
 Printed on full-color premium substrates, our announcement cards come in a variety of sizes and finishes to cater to your specific needs. Each card is crafted to embody the importance of the announcement it carries, ensuring it won't just be seen but felt. With optional blank envelopes, these cards become a complete package ready to be sent out into the world, leaving a polished and professional impression.
 Moreover, announcement cards provide a tactile engagement that enriches the message, making it more memorable. They are a curated experience, a bridge between the sender and the receiver that strengthens relationships and conveys genuine intent in a digital world.</t>
@@ -501,9 +447,6 @@
     <t>assets/images/products/calendars-1.webp</t>
   </si>
   <si>
-    <t>Calendars </t>
-  </si>
-  <si>
     <t>Calendars aren't just tools; they're dynamic brand ambassadors, showcasing your business every day of the year. Our Self-Cover Calendars, printed in full color on 100lb Gloss Book stock, offer not only practicality but also visual delight. With multiple page counts, sizes, and binding options, they ensure your brand stays front and center, capturing attention and fostering brand recall.
 Custom calendars serve as daily reminders of your business, woven seamlessly into the lives of your clients and customers. Whether in homes, offices, or public spaces, they act as subtle yet consistent marketing agents. Featuring high-quality printing, each month's image is a stunning representation of your brand, captivating all who see it.
 Moreover, calendars offer a cost-effective marketing strategy, providing year-long exposure and often serving as appreciated gifts that enhance positive brand association. Whether for internal use, customer loyalty gifts, or broader marketing campaigns, our calendars are designed to leave a lasting impression, ensuring your business stays top-of-mind day after day.</t>
@@ -527,9 +470,6 @@
     <t>assets/images/products/doorhangers-1.webp</t>
   </si>
   <si>
-    <t>Door Hangers </t>
-  </si>
-  <si>
     <t>Door hangers are the ultimate in direct marketing, ensuring your message can't be ignored. Printed on durable paper stock and designed to hang prominently on any door handle, they're an excellent way to reach new customer segments and ensure your promotional material lands directly in the hands of potential clients. With ample space for engaging text and visuals, they maximize marketing impact and demand immediate attention.
 The strategic placement of door hangers puts your message front and center, literally at the doorstep of your audience. Whether promoting local services, restaurant deals, or upcoming events, they're hard to overlook. They serve as physical prompts that demand attention and action, making an immediate impact from the moment your customer arrives home or steps out the door.
 Available in various sizes and coatings, including gloss cover, gloss book, and C2S stocks, our door hangers offer a tailored approach to suit any marketing need, delivering an experience right to your audience's fingertips.</t>
@@ -553,9 +493,6 @@
     <t>assets/images/products/envelopes-1.webp</t>
   </si>
   <si>
-    <t>Envelopes </t>
-  </si>
-  <si>
     <t>Envelopes are more than just carriers; they're your brand's first point of tactile interaction. Our offset envelopes cater to various business communications, providing full-color options across different stocks to resonate with your corporate identity. Featuring self-adhesive security tints on select stocks, they ensure privacy and integrity of contents, embodying trust in every seal.
 Variable addressing streamlines the mailing process by personalizing each envelope, reflecting attention to detail and a personalized touch crucial in building rapport with recipients. From elegant invitations to professional business letters, our envelopes accommodate every need, ensuring your message is delivered with clarity, confidence, and a hint of sophistication unique to your brand.
 Additionally, the tactile quality of the paper and precision of print make these envelopes more than functional; they become an extension of your brand's quality and commitment to excellence, facilitating the safe and stylish transport of important messages to clients, partners, and stakeholders.</t>
@@ -579,9 +516,6 @@
     <t>assets/images/products/hangtags-1.webp</t>
   </si>
   <si>
-    <t>Hang Tags </t>
-  </si>
-  <si>
     <t>Hang tags serve as silent brand ambassadors, whispering the story of quality and care behind each product. Our full-color hang tags, printed on premium stocks, ensure every tag stands out against any product backdrop. Inviting touch and encouraging interaction, they bridge the gap between product and consumer, offering a canvas to showcase your brand and convey essential product information.
 With durability in design, our 16pt stock resists water and tears, safeguarding your brand's presence even in hands-on retail environments. Versatile hanging options ensure tags stay in place, swaying gently as your products move off the shelves. Complemented by various finishing options, including UV coating and matte finishes, these tags engage customers and reinforce brand experience with every glance and touch.
 More than just identifiers, hang tags elevate brand perception and turn simple products into coveted items. They're a promise of quality and a stamp of brand pride, engaging customers and reinforcing brand experience at every opportunity.</t>
@@ -605,9 +539,6 @@
     <t>assets/images/products/letterheads-1.webp</t>
   </si>
   <si>
-    <t>Letterheads </t>
-  </si>
-  <si>
     <t>Letterheads aren't just stationery; they're reflections of your brand's professionalism and commitment to quality. Our linen uncoated letterheads, printed in full color on premium 70lb linen stock, elevate your correspondence to new heights. Made with a minimum of 30% post-consumer fiber, these letterheads speak volumes about your dedication to sustainability and excellence.
 The tactile sensation of linen adds a touch of luxury to every interaction, enhancing the reader's experience and leaving a lasting impression. Whether it's an official announcement, a personalized letter, or a token of appreciation, our letterheads ensure that your message is not just read but felt. With various sizes available, they adapt seamlessly to any corporate style, reinforcing your brand's image with every use.</t>
   </si>
@@ -628,9 +559,6 @@
   </si>
   <si>
     <t>assets/images/products/menus-1.webp</t>
-  </si>
-  <si>
-    <t>Menus </t>
   </si>
   <si>
     <t>Menus are not simply lists of dishes; they are stories waiting to be told, enticing the taste buds and sparking anticipation. Our premium printed menus go beyond the ordinary, offering a feast for the senses that sets the stage for a memorable dining experience. Crafted with precision and attention to detail, our menus are tailored to suit any occasion or promotion, ensuring that they not only inform but also excite.
@@ -657,9 +585,6 @@
     <t>assets/images/products/ncrforms-1.webp</t>
   </si>
   <si>
-    <t>NCR Forms </t>
-  </si>
-  <si>
     <t>NCR Forms revolutionize administrative tasks, offering a seamless solution for businesses seeking efficiency and accuracy. Our 2-part NCR Forms, in particular, are indispensable for organizations that rely on multicolored copies of essential documents like order forms and invoices. Printed digitally and meticulously collated into sets of white and canary sheets, these forms boast a professional appearance with glue binding along the short edge. This attention to detail ensures a polished finish that reflects positively on your business image.
 One of the standout features of our NCR Forms is their customizable numbering, with up to four locations available. This feature simplifies organization and tracking, facilitating accurate record-keeping processes. Whether it's for inventory management or financial transactions, our forms empower businesses to maintain meticulous records with ease.
 But perhaps the greatest advantage of NCR Forms lies in their ability to generate instant duplicates, eliminating the need for time-consuming digital copies or manual photocopying. This not only saves valuable time but also minimizes the risk of errors associated with manual transcriptions. For businesses operating in fast-paced environments where every second counts, the clarity and reliability of our forms are indispensable.
@@ -681,9 +606,6 @@
     <t>assets/images/products/eventtickets-1.webp</t>
   </si>
   <si>
-    <t>Event Tickets </t>
-  </si>
-  <si>
     <t>Event Tickets serve as more than mere entry passes; they embody the initial touchpoint of an immersive experience that awaits your attendees. Crafted with meticulous attention to detail, our high-quality tickets are designed to kickstart this journey on a euphoric note. Vibrant colors and crisp printing mirror the vibrant energy of your event, whether it's the pulsating beats of a music festival, the sophisticated allure of a charity gala, or the professional ambiance of a corporate seminar. The tactile sensation of our paper and the visual aesthetics collaborate seamlessly to evoke excitement and extend a warm invitation into your world.
 With customizable features such as security numbering and tear-off perforations, our tickets offer both practical functionality and a touch of sophistication. These elements not only bolster the security and efficiency of event entry but also serve as cherished keepsakes for attendees—a tangible memento of an experience that left a lasting impression. Each ticket acts as a tangible link between anticipation and reality, a physical token that can be held, shared, and cherished long after the event's conclusion.
 Recognizing the pivotal role of branding, we provide a diverse range of sizes and finishes to ensure that your event's branding remains cohesive and resonant. Whether your event demands the lustrous sheen of gloss or the understated elegance of matte, our tickets epitomize the quality and meticulousness that attendees can anticipate. In essence, our event tickets transcend mere slips of entry; they represent meticulously crafted experiences in their own right, setting the stage for the main attraction—your event.</t>
@@ -707,9 +629,6 @@
     <t>assets/images/products/posters-1.webp</t>
   </si>
   <si>
-    <t>Posters </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Posters have long been revered as a direct and impactful mode of communication. At our studio, we elevate the art of poster design to new heights, ensuring that your message commands attention whether it's displayed amidst the hustle of a city center or on a tranquil community bulletin board. With their generous dimensions and vibrant hues, our posters seize the viewer's gaze, guaranteeing that your message, event, or artwork leaves an indelible impression. Our commitment to quality extends beyond mere aesthetics; we select materials that promise resilience, ensuring that your poster endures any environment, from the controlled confines of indoor galleries to the unpredictable outdoors. 
  The versatility of posters knows no bounds. They serve as potent beacons for product launches, tantalizing potential customers with captivating visuals. For events, they function as heralds, boldly proclaiming your presence and beckoning crowds to partake in the festivities. In the realm of art, posters democratize visual culture, offering a medium for widespread dissemination and communal engagement. In essence, our posters transcend the confines of paper and ink; they become rallying points, inviting shared experiences and meaningful dialogue. 
  Moreover, our extensive range of sizes and finishes ensures that there's a poster tailored to every need and occasion. Opt for glossy finishes to infuse your poster with vibrant energy, ideal for high-octane events or attention-grabbing advertisements. Alternatively, embrace the understated elegance of matte finishes, perfectly suited for gallery showcases or sophisticated venue promotions. Each poster we produce is not just a feast for the eyes; it's a testament to durability and longevity, ensuring that your message stands the test of time. </t>
@@ -733,9 +652,6 @@
     <t>assets/images/products/stickers-1.webp</t>
   </si>
   <si>
-    <t>Stickers </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Stickers epitomize the essence of expression in today's vibrant visual landscape. From embellishing urban environments to personalizing belongings and product packaging, stickers serve as canvases for individuality and style. At our studio, we elevate sticker printing to an art form, ensuring that each sticker embodies the clarity and vibrancy of your imagination. Through meticulous full-color printing processes, we breathe life into designs, capturing intricate details and precise color tones that captivate audiences across all demographics. 
  But it's not just about aesthetics; it's about resilience. Our stickers are built to withstand the elements when displayed outdoors and the rigors of daily use when placed indoors. Waterproof and resilient, they retain their brilliance on laptops, water bottles, and outdoor gear, ensuring that your message endures. With a diverse array of shapes and sizes available, there's a sticker format perfectly tailored to every concept, whether it's sleek die-cut shapes for intricate designs or classic rectangles for bold messaging. 
  Stickers represent a versatile, engaging, and accessible means to extend your brand's presence or infuse personality into your surroundings. They offer an instantaneous and cost-effective method to convey a message, be it a logo, a piece of art, or a catchy slogan. Our stickers don't just adhere; they command attention, spark conversations, and forge connections. They're more than mere decals; they're catalysts for meaningful interactions and memorable experiences. </t>
@@ -759,9 +675,6 @@
     <t>assets/images/products/catalogs-1.webp</t>
   </si>
   <si>
-    <t>Catalogs </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Catalogs represent an indispensable cornerstone in the realm of sales and marketing, meticulously curated to present your products with utmost elegance and detail. Each page serves as a portal, beckoning your customers into a realm of carefully selected items, each possessing its own unique story. With high-resolution imagery complemented by captivating descriptions, every turn of the catalog's pages transforms into a dialogue with your clientele. The tactile experience of leafing through the catalog enriches the shopping journey, forging a connection that digital platforms simply cannot emulate. Our catalogs are meticulously designed to captivate attention and retain it, encouraging customers to not only engage with the content but also with the products themselves. 
  The design of a catalog is paramount, serving as the perfect complement to the products it showcases. Our diverse array of formats — from sleek booklets to innovative fold-outs — is tailored to encapsulate the essence of your brand while meeting the practical needs of your customers. They transcend mere displays of merchandise; they embody your brand's identity and exemplify your unwavering commitment to excellence. Through meticulous layout and design, our catalogs provide a platform where products are elevated, stories are woven, and brands resonate deeply with the audience, fostering a seamless journey from interest to purchase. 
  Crafting a catalog that not only informs but also inspires is an art form in itself. It necessitates a harmonious fusion of visual allure, informative substance, and strategic storytelling. Our mission is to fashion a catalog that transcends the realm of mere product listings, instead, weaving narratives that underscore the value each item brings to the customer's life. This narrative-centric approach ensures that each catalog transcends its role as a mere sales tool, transforming into a cherished keepsake that resonates with readers, beckoning them to return, not just for the products, but for the immersive experience encapsulated within its pages. </t>
@@ -785,9 +698,6 @@
     <t>assets/images/products/rolllabels-1.webp</t>
   </si>
   <si>
-    <t>Roll Labels </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roll Labels are not just a mere accessory for branding and packaging; they're an essential tool that ensures consistency and professionalism across your product line. Crafted with precision, our labels boast high-definition graphics that impeccably capture the essence of your brand's design. With a wide variety of shapes and sizes available, there's a perfect label for every product in your lineup, guaranteeing that your brand's image is flawlessly showcased, regardless of the item it adorns. Plus, with the robust adhesive backing, you can trust that your brand remains visible and intact, adhering firmly to surfaces ranging from delicate glass jars to sturdy plastic containers. 
  In today's fast-paced retail environment, Roll Labels serve as more than just a branding necessity; they're a tangible representation of quality and attention to detail. Designed to withstand the rigors of handling, transportation, and display, these labels ensure that your product maintains its shelf appeal throughout its journey from your hands to the hands of the consumer. Whether you're a small boutique or a large-scale manufacturer, Roll Labels silently but effectively convey your brand's message in every interaction with your customers, leaving a lasting impression that fosters loyalty and trust. 
  Furthermore, the application of Roll Labels is a seamless and efficient process that seamlessly integrates into your production lines. This streamlined workflow is crucial for high-volume operations, minimizing downtime and maximizing productivity. Whether you're a boutique crafting artisanal goods or a large manufacturer scaling up production, Roll Labels offer a cost-effective solution that enhances brand presence and optimizes packaging processes, ensuring that your products stand out in a crowded marketplace. </t>
@@ -814,9 +724,6 @@
     <t>assets/images/products/embroidery-1.webp</t>
   </si>
   <si>
-    <t>Embroidery </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Embroidery stands as a timeless testament to the fusion of artistry and craftsmanship, elevating ordinary textiles into sophisticated works of wearable art. Our embroidery services breathe life into apparel and promotional items, imbuing them with a level of elegance and distinction that sets them apart. With intricate stitches and vibrant threads, our embroidery transforms mere fabric into designs that exude luxury and attention to detail. Whether it's uniforms, headwear, or bespoke bags, the added dimension of embroidery offers a tactile richness that screen printing simply can't replicate. 
  At the heart of our embroidery services lies precision. Our state-of-the-art machines ensure that each design is faithfully replicated with unparalleled accuracy, from the first item to the thousandth. This consistency is paramount, especially when branding uniforms or creating merchandise that serves as a hallmark of your company's identity. Through embroidery, your products acquire a premium feel that reflects the quality and care of your brand, leaving a lasting impression on your audience. 
  But the beauty of embroidery extends beyond its visual appeal; it's also remarkably versatile. Whether it's a subtle monogram or a full-color logo, embroidery adds depth and distinction that withstands the test of time. It's a choice that signifies an investment in quality, projecting an image of prestige and permanence that resonates with clients and customers alike. </t>
@@ -840,9 +747,6 @@
     <t>assets/images/products/screenprinting-1.webp</t>
   </si>
   <si>
-    <t>Screen Printing </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Screen printing isn't just a printing method; it's an art form that breathes life into designs on various materials. Rooted in tradition yet constantly evolving to meet modern demands, screen printing is the epitome of vibrant and long-lasting impressions. Whether you're outfitting a sports team with custom apparel or creating eye-catching promotional merchandise for an event, screen printing ensures colors that pop and messages that resonate loud and clear. What sets it apart is not just its visual appeal but also its durability, guaranteeing that each piece can withstand daily wear and frequent washing, making it a staple for both fashion and function. 
  The tactile experience of screen printing adds an extra dimension to every project. Our inks sit atop the fabric, creating a texture that's not only visible but also tangible. This tactile quality makes the design come alive, drawing attention and inviting touch. Moreover, with the capability for large-scale production, screen printing is an ideal choice for both boutique projects and extensive merchandise runs. It's a harmonious blend of the artist's vision and the craftsman's touch, resulting in items that boast both aesthetic beauty and practical resilience. 
  But our commitment to quality doesn't stop at the print itself. We take immense pride in using only the finest-grade materials and inks, ensuring that every item we produce meets our rigorous standards — and most importantly, yours. Each print serves as a testament to our unwavering dedication to excellence, and we collaborate closely with our clients to ensure that every detail, from the initial concept to the final product, is nothing short of perfect. Screen printing isn't merely a service we offer; it's a passion we share with you. </t>
@@ -866,9 +770,6 @@
     <t>assets/images/products/dtf-1.webp</t>
   </si>
   <si>
-    <t>DTF </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Direct to Film (DTF) printing is revolutionizing textile customization, demolishing the barriers that once constrained creative expression. This state-of-the-art technique enables the transfer of vibrant, full-color images onto a wide range of fabrics without the need for pre-treatment. DTF emerges as the ultimate solution for boutique runs, personalized garments, and bespoke orders where quality and flexibility reign supreme. The outcome is a print that not only dazzles the eyes but also withstands the trials of wear and wash, retaining its brilliance wash after wash. 
  The versatility of DTF printing lies in its capacity to accommodate intricate and elaborate designs with a level of clarity and color depth previously unimaginable in traditional fabric printing methods. This technology unlocks a realm of possibilities, empowering designers and brands to push the boundaries of fashion and promotional apparel. The printed film is seamlessly pressed onto the fabric, forging a bond that is not only durable but also flexible, ensuring that the garments maintain their comfort and fit. 
  DTF printing transcends being merely a service; it embodies a commitment to innovation and individuality. It extends an invitation to explore garment decoration without constraints, to craft custom clothing that stands out in a saturated market. Whether it’s for an emerging fashion line seeking to make a statement or a corporate entity aiming to elevate its promotional wear, DTF provides a quality solution that speaks volumes about your brand’s dedication to excellence and contemporary allure. </t>
@@ -892,9 +793,6 @@
     <t>assets/images/products/dgt-1.webp</t>
   </si>
   <si>
-    <t>DGT </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Direct to Garment (DGT) Printing is the pinnacle of creativity and innovation in textile printing. It empowers designers and brands to bring their most intricate designs to life with unparalleled precision and color vibrancy. Whether you're launching a fashion line, merchandising for artists, or outfitting corporate apparel, DGT breathes life into fabric, ensuring that every fiber holds a pixel-perfect representation of your artwork. This method excels in accommodating complex images, allowing the freedom to incorporate gradients, full-color pictures, and subtle shading that elevate the standard of custom apparel. 
  One of the standout features of DGT lies in its suitability for small-scale production and one-off projects, historically challenging and costly with other print methods. It's perfect for boutique fashion runs, personalized t-shirts for special events, or prototype designs for emerging brands. DGT printing heralds a new era of eco-friendly and on-demand apparel creation, minimizing waste and eliminating the need for large inventories. 
  Moreover, the tactile experience of a DGT-printed garment is unmatched. Unlike some traditional printing techniques that leave a heavy or plastic-like feel on the fabric, DGT results in a print that's as soft as the shirt itself. This comfort, coupled with the robust nature of the ink that withstands countless washes without fading, makes DGT-printed apparel not only an aesthetic delight but also a practical, long-lasting wardrobe staple. </t>
@@ -918,9 +816,6 @@
     <t>assets/images/products/heat-1.webp</t>
   </si>
   <si>
-    <t>Heat Transfer Vinyl</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Heat transfer printing stands as a cornerstone in apparel customization, offering versatility that's both efficient and cost-effective. This method allows the application of high-resolution, detailed designs to a plethora of materials, from cotton to polyester blends, making it an ideal choice for personalized gifts, team sports uniforms, and corporate event merchandise. The clarity of the images produced through heat transfer is noteworthy, ensuring that each piece resonates with quality and sharpness. 
  What sets heat transfer apart is its adaptability to a wide range of design requirements. Whether it's a vibrant image for a child's birthday shirt or a complex logo on a professional sports jersey, the transfer brings out the nuances of color and detail with exceptional fidelity. It's an ideal solution for short runs and personalized batches, where the uniqueness of each item is at the heart of its value. Heat transfer printing ensures that small-scale projects enjoy the same high standards of design integrity as larger productions. 
  Furthermore, heat transfer printing offers durability that entrepreneurs and businesses can rely on. The adherence of the design to the material is strong and resilient, capable of withstanding rigorous use and regular laundering. This longevity is crucial for businesses that want their brand's message to endure over time, ensuring that each item remains a testament to their commitment to quality. </t>
@@ -947,9 +842,6 @@
     <t>assets/images/products/videomenu-1.webp</t>
   </si>
   <si>
-    <t>Video Menu </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Video Menus represent the intersection where technology enhances the culinary experience. By introducing motion and storytelling to menu presentations, they create an immersive experience that static print menus cannot offer. Restaurants, cafes, and bars find that video menus help patrons visualize the flavors and textures of the dishes, resulting in a more engaging selection process. 
  This modern approach to menu display is not merely about aesthetics; it's a strategic tool that enhances the dining experience and stimulates appetite through tantalizing visuals. It's an innovative way to showcase the freshness of ingredients, the artistry of plating, and the ambiance of the dining environment. Whether it's the sizzle of a steak on the grill or the gentle pour of a vintage wine, video menus translate these experiences into visual narratives that resonate with the customer. 
  In addition to enriching the in-venue experience, video menus are a powerful online marketing asset. When integrated into a restaurant's website or social media channels, they extend the reach of the establishment's appeal, inviting remote viewers to partake in what is offered within its walls. The video menu becomes more than a list of dishes; it becomes a cornerstone of the restaurant's brand story, shared across digital platforms, inviting engagement, sharing, and ultimately driving sales. </t>
@@ -993,9 +885,6 @@
     <t>assets/images/products/photosession-1.webp</t>
   </si>
   <si>
-    <t>Photo Session </t>
-  </si>
-  <si>
     <t xml:space="preserve"> A photo session serves as the gateway to immortalizing life's precious moments, transforming the ephemeral into tangible memories. Our photography services cater to a diverse spectrum of needs, ranging from capturing the essence of personal milestones to crystallizing the professional image of a brand. Each photograph we capture stands as a testament to the subject's uniqueness, a visual narrative meticulously crafted with attention to light, composition, and mood. Our team of professional photographers brings a blend of technical expertise and creative intuition to every shoot, ensuring that the resulting images transcend mere pictures to become timeless stories frozen in time. 
  Whether in the controlled confines of a studio or against the dynamic backdrop of an on-location setting, our approach to photography remains adaptive and responsive. We believe that the true essence of a successful photo session lies in allowing the subject's character to shine through authentically and unhindered. Our unwavering commitment to quality dictates that we utilize only professional-grade equipment and techniques to ensure that each shot captures the essence of the moment in its purest form. 
  In today's digital landscape, where visuals reign supreme in communication, the execution of a well-planned photo session can spell the difference between blending into the background and standing out in a crowded market. Whether it's for personal branding, preserving cherished family memories, or amplifying the impact of commercial advertising, our photographs serve as powerful storytellers, conveying your narrative with crystal-clear clarity, profound emotion, and a timeless allure that resonates with every viewer. </t>
@@ -1019,9 +908,6 @@
     <t>assets/images/products/productphotography-1.webp</t>
   </si>
   <si>
-    <t>Product Shoot </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Product Shoot is your gateway to presenting your products in the best possible light, quite literally. Our service is meticulously designed to showcase your merchandise with unparalleled elegance and detail, ensuring that every feature and nuance is captured flawlessly. Each product we shoot becomes a masterpiece in its own right, meticulously crafted to captivate your audience and drive sales. 
  Our team of skilled photographers approaches each product shoot with a keen eye for detail and a dedication to excellence. Every angle, every lighting setup, and every composition is carefully considered to highlight the unique selling points of your products. We understand that in today's competitive market, presentation is everything, and our goal is to make your products shine brighter than the rest. 
  Whether you're launching a new product line, updating your e-commerce website, or preparing for a marketing campaign, our Product Shoot service is your secret weapon for success. We offer a range of customizable options to suit your specific needs, from simple product catalog shots to elaborate lifestyle images that tell a story. Whatever your vision, we're here to bring it to life with style, professionalism, and undeniable flair. </t>
@@ -1043,9 +929,6 @@
   </si>
   <si>
     <t>assets/images/products/videoediting-1.webp</t>
-  </si>
-  <si>
-    <t>Video Production </t>
   </si>
   <si>
     <t xml:space="preserve"> Video Production and Editing is the key to unlocking the full potential of your business or private event, transforming ordinary moments into extraordinary memories. Our service is a seamless blend of creativity and technical expertise, crafted to deliver stunning visuals and compelling narratives that captivate your audience and leave a lasting impression. 
@@ -1086,15 +969,6 @@
     <t>Video Menu, Website Development, Photo Session, Product Shoot, Video Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Direct to Garment (DTG) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct to Film (DTF) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Media </t>
-  </si>
-  <si>
     <t>socialmedia</t>
   </si>
   <si>
@@ -1119,108 +993,6 @@
     <t>img3</t>
   </si>
   <si>
-    <t>assets/imgs/prodact/announcementcards-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/businesscards-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/calendars-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/carmagnet-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/catalogs-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/coroplast-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/dgt-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/doorhangers-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/dtf-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/embroidery-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/envelopes-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/eventtickets-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/flyersandbrochures-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/hangtags-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/heat-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/hightrackvinyl-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/letterheads-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/menus-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/photosession-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/postcards-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/posters-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/productphotography-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/retactiblebanner-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/rolllabels-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/screenprinting-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/sidewalk-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/socialmediamanagement-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/stickers-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/videoediting-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/videomenu-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/vinylbanner-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/walldecal-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/website-3.webp</t>
-  </si>
-  <si>
-    <t>img2</t>
-  </si>
-  <si>
     <t>uses</t>
   </si>
   <si>
@@ -1254,16 +1026,13 @@
     <t>assets/images/preview/headercard-3.webp</t>
   </si>
   <si>
-    <t>assets/imgs/prodact/perforated-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/windowgrapich-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/ncrforms-3.webp</t>
-  </si>
-  <si>
-    <t>assets/imgs/prodact/headercard-3.webp</t>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Direct to Film (DTF)</t>
+  </si>
+  <si>
+    <t>Direct to Garment (DTG)</t>
   </si>
 </sst>
 </file>
@@ -1655,15 +1424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40602E96-8AC6-544C-8F75-7F183A45A859}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="58.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
@@ -1673,145 +1442,136 @@
     <col min="8" max="8" width="43.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="165" style="3" customWidth="1"/>
-    <col min="11" max="12" width="51.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="46.5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="51.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="46.5" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+    </row>
+    <row r="3" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1819,43 +1579,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>363</v>
+        <v>211</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1863,395 +1620,368 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="K7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="M10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="M11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>353</v>
+      <c r="L13" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2259,43 +1989,40 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>341</v>
+        <v>42</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -2303,43 +2030,40 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>343</v>
+        <v>62</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -2347,131 +2071,122 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>348</v>
+        <v>101</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>351</v>
+        <v>121</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>354</v>
+        <v>142</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2479,43 +2194,40 @@
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>357</v>
+        <v>163</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -2523,43 +2235,40 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>358</v>
+        <v>170</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -2567,87 +2276,81 @@
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>388</v>
+        <v>308</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2655,87 +2358,81 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>352</v>
+        <v>128</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>361</v>
+        <v>197</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2743,87 +2440,81 @@
         <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2831,524 +2522,488 @@
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
